--- a/psychopy_expt/searchDiscPavlovia/image_stimuli_practice.xlsx
+++ b/psychopy_expt/searchDiscPavlovia/image_stimuli_practice.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s03an7\Documents\GitHub\APP_VS\psychopy_expt\searchDisc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marcin\Documents\GitHub\APP_VS\psychopy_expt\searchDiscPavlovia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFBE6FF8-B614-43FB-B9DD-09AE9A03FCAD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25FFFBB6-57A7-41E8-B86D-283B7D74350C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1515" yWindow="840" windowWidth="14595" windowHeight="12525" xr2:uid="{B5DA56B9-5FF9-4263-B0C3-36A3A7D4C8B4}"/>
+    <workbookView xWindow="28965" yWindow="1260" windowWidth="28830" windowHeight="7830" xr2:uid="{B5DA56B9-5FF9-4263-B0C3-36A3A7D4C8B4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,76 +38,76 @@
     <t>ImageFile</t>
   </si>
   <si>
-    <t>images/exp1a_trial_0_colour1_distractors1_r.png</t>
-  </si>
-  <si>
     <t>targ_side</t>
   </si>
   <si>
     <t>correctAnswer</t>
   </si>
   <si>
-    <t>images/exp1a_trial_2_colour1_distractors9_r.png</t>
-  </si>
-  <si>
-    <t>images/exp1a_trial_1_colour1_distractors4_r.png</t>
-  </si>
-  <si>
-    <t>images/exp1a_trial_3_colour1_distractors19_r.png</t>
-  </si>
-  <si>
-    <t>images/exp1a_trial_5_colour2_distractors1_r.png</t>
-  </si>
-  <si>
-    <t>images/exp1a_trial_6_colour2_distractors4_r.png</t>
-  </si>
-  <si>
-    <t>images/exp1a_trial_7_colour2_distractors9_r.png</t>
-  </si>
-  <si>
-    <t>images/exp1a_trial_8_colour2_distractors19_r.png</t>
-  </si>
-  <si>
-    <t>images/exp1a_trial_9_colour2_distractors31_r.png</t>
-  </si>
-  <si>
-    <t>images/exp1a_trial_15_colour1_distractors1_l.png</t>
-  </si>
-  <si>
-    <t>images/exp1a_trial_16_colour1_distractors4_l.png</t>
-  </si>
-  <si>
-    <t>images/exp1a_trial_17_colour1_distractors9_l.png</t>
-  </si>
-  <si>
-    <t>images/exp1a_trial_18_colour1_distractors19_l.png</t>
-  </si>
-  <si>
-    <t>images/exp1a_trial_19_colour1_distractors31_l.png</t>
-  </si>
-  <si>
     <t>r</t>
   </si>
   <si>
     <t>l</t>
   </si>
   <si>
-    <t>images/exp1a_trial_4_colour1_distractors31_r.png</t>
-  </si>
-  <si>
-    <t>images/exp1a_trial_20_colour2_distractors1_l.png</t>
-  </si>
-  <si>
-    <t>images/exp1a_trial_21_colour2_distractors4_l.png</t>
-  </si>
-  <si>
-    <t>images/exp1a_trial_22_colour2_distractors9_l.png</t>
-  </si>
-  <si>
-    <t>images/exp1a_trial_23_colour2_distractors19_l.png</t>
-  </si>
-  <si>
-    <t>images/exp1a_trial_24_colour2_distractors31_l.png</t>
+    <t>Practice arrays/exp1a_trial_0_colour1_distractors1_r.png</t>
+  </si>
+  <si>
+    <t>Practice arrays/exp1a_trial_3_colour1_distractors19_r.png</t>
+  </si>
+  <si>
+    <t>Practice arrays/exp1a_trial_5_colour1_distractors43_r.png</t>
+  </si>
+  <si>
+    <t>Practice arrays/exp1a_trial_10_colour2_distractors31_r.png</t>
+  </si>
+  <si>
+    <t>Practice arrays/exp1a_trial_12_colour3_distractors1_r.png</t>
+  </si>
+  <si>
+    <t>Practice arrays/exp1a_trial_16_colour3_distractors31_r.png</t>
+  </si>
+  <si>
+    <t>Practice arrays/exp1a_trial_19_colour1_distractors4_l.png</t>
+  </si>
+  <si>
+    <t>Practice arrays/exp1a_trial_20_colour1_distractors9_l.png</t>
+  </si>
+  <si>
+    <t>Practice arrays/exp1a_trial_21_colour1_distractors19_l.png</t>
+  </si>
+  <si>
+    <t>Practice arrays/exp1a_trial_25_colour2_distractors4_l.png</t>
+  </si>
+  <si>
+    <t>Practice arrays/exp1a_trial_28_colour2_distractors31_l.png</t>
+  </si>
+  <si>
+    <t>Practice arrays/exp1a_trial_29_colour2_distractors43_l.png</t>
+  </si>
+  <si>
+    <t>Practice arrays/exp1a_trial_32_colour3_distractors9_l.png</t>
+  </si>
+  <si>
+    <t>Practice arrays/exp1a_trial_33_colour3_distractors19_l.png</t>
+  </si>
+  <si>
+    <t>Practice arrays/exp1a_trial_35_colour3_distractors43_l.png</t>
+  </si>
+  <si>
+    <t>Practice arrays/exp1a_trial_36_colour0_distractors0_r.png</t>
+  </si>
+  <si>
+    <t>Practice arrays/exp1a_trial_37_colour0_distractors0_l.png</t>
+  </si>
+  <si>
+    <t>Practice arrays/exp1a_trial_7_colour2_distractors4_r.png</t>
+  </si>
+  <si>
+    <t>Practice arrays/exp1a_trial_8_colour2_distractors9_r.png</t>
+  </si>
+  <si>
+    <t>Practice arrays/exp1a_trial_13_colour3_distractors4_r.png</t>
   </si>
 </sst>
 </file>
@@ -462,7 +462,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -475,18 +475,18 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="C2">
         <v>2</v>
@@ -494,10 +494,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -505,10 +505,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="C4">
         <v>2</v>
@@ -516,10 +516,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="C5">
         <v>2</v>
@@ -527,10 +527,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="C6">
         <v>2</v>
@@ -538,10 +538,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="C7">
         <v>2</v>
@@ -549,10 +549,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="C8">
         <v>2</v>
@@ -560,10 +560,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="C9">
         <v>2</v>
@@ -574,7 +574,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="C10">
         <v>2</v>
@@ -585,10 +585,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="C11">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -596,7 +596,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -607,7 +607,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -618,7 +618,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -629,7 +629,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -640,7 +640,7 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -648,10 +648,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -659,10 +659,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -670,10 +670,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -681,21 +681,21 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="C20">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="C21">
         <v>1</v>

--- a/psychopy_expt/searchDiscPavlovia/image_stimuli_practice.xlsx
+++ b/psychopy_expt/searchDiscPavlovia/image_stimuli_practice.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marcin\Documents\GitHub\APP_VS\psychopy_expt\searchDiscPavlovia\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anna\Documents\APP_VS_git\psychopy_expt\searchDiscPavlovia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25FFFBB6-57A7-41E8-B86D-283B7D74350C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC775A69-C185-4274-B324-E692E1854840}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28965" yWindow="1260" windowWidth="28830" windowHeight="7830" xr2:uid="{B5DA56B9-5FF9-4263-B0C3-36A3A7D4C8B4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B5DA56B9-5FF9-4263-B0C3-36A3A7D4C8B4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="23">
   <si>
     <t>ImageFile</t>
   </si>
@@ -53,61 +53,55 @@
     <t>Practice arrays/exp1a_trial_0_colour1_distractors1_r.png</t>
   </si>
   <si>
-    <t>Practice arrays/exp1a_trial_3_colour1_distractors19_r.png</t>
-  </si>
-  <si>
-    <t>Practice arrays/exp1a_trial_5_colour1_distractors43_r.png</t>
-  </si>
-  <si>
-    <t>Practice arrays/exp1a_trial_10_colour2_distractors31_r.png</t>
-  </si>
-  <si>
-    <t>Practice arrays/exp1a_trial_12_colour3_distractors1_r.png</t>
-  </si>
-  <si>
-    <t>Practice arrays/exp1a_trial_16_colour3_distractors31_r.png</t>
-  </si>
-  <si>
-    <t>Practice arrays/exp1a_trial_19_colour1_distractors4_l.png</t>
-  </si>
-  <si>
-    <t>Practice arrays/exp1a_trial_20_colour1_distractors9_l.png</t>
-  </si>
-  <si>
-    <t>Practice arrays/exp1a_trial_21_colour1_distractors19_l.png</t>
-  </si>
-  <si>
-    <t>Practice arrays/exp1a_trial_25_colour2_distractors4_l.png</t>
-  </si>
-  <si>
-    <t>Practice arrays/exp1a_trial_28_colour2_distractors31_l.png</t>
-  </si>
-  <si>
-    <t>Practice arrays/exp1a_trial_29_colour2_distractors43_l.png</t>
-  </si>
-  <si>
-    <t>Practice arrays/exp1a_trial_32_colour3_distractors9_l.png</t>
-  </si>
-  <si>
-    <t>Practice arrays/exp1a_trial_33_colour3_distractors19_l.png</t>
-  </si>
-  <si>
-    <t>Practice arrays/exp1a_trial_35_colour3_distractors43_l.png</t>
-  </si>
-  <si>
-    <t>Practice arrays/exp1a_trial_36_colour0_distractors0_r.png</t>
-  </si>
-  <si>
-    <t>Practice arrays/exp1a_trial_37_colour0_distractors0_l.png</t>
-  </si>
-  <si>
-    <t>Practice arrays/exp1a_trial_7_colour2_distractors4_r.png</t>
-  </si>
-  <si>
-    <t>Practice arrays/exp1a_trial_8_colour2_distractors9_r.png</t>
-  </si>
-  <si>
-    <t>Practice arrays/exp1a_trial_13_colour3_distractors4_r.png</t>
+    <t>j</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>Practice arrays/exp1a_trial_17_colour1_distractors9_l.png</t>
+  </si>
+  <si>
+    <t>Practice arrays/exp1a_trial_18_colour1_distractors19_l.png</t>
+  </si>
+  <si>
+    <t>Practice arrays/exp1a_trial_21_colour2_distractors4_l.png</t>
+  </si>
+  <si>
+    <t>Practice arrays/exp1a_trial_23_colour2_distractors19_l.png</t>
+  </si>
+  <si>
+    <t>Practice arrays/exp1a_trial_25_colour3_distractors1_l.png</t>
+  </si>
+  <si>
+    <t>Practice arrays/exp1a_trial_27_colour3_distractors9_l.png</t>
+  </si>
+  <si>
+    <t>Practice arrays/exp1a_trial_30_colour0_distractors0_r.png</t>
+  </si>
+  <si>
+    <t>Practice arrays/exp1a_trial_31_colour0_distractors0_l.png</t>
+  </si>
+  <si>
+    <t>Practice arrays/exp1a_trial_1_colour1_distractors4_r.png</t>
+  </si>
+  <si>
+    <t>Practice arrays/exp1a_trial_7_colour2_distractors9_r.png</t>
+  </si>
+  <si>
+    <t>Practice arrays/exp1a_trial_8_colour2_distractors19_r.png</t>
+  </si>
+  <si>
+    <t>Practice arrays/exp1a_trial_10_colour3_distractors1_r.png</t>
+  </si>
+  <si>
+    <t>Practice arrays/exp1a_trial_12_colour3_distractors9_r.png</t>
+  </si>
+  <si>
+    <t>Practice arrays/exp1a_trial_14_colour3_distractors31_r.png</t>
+  </si>
+  <si>
+    <t>Practice arrays/exp1a_trial_16_colour1_distractors4_l.png</t>
   </si>
 </sst>
 </file>
@@ -459,18 +453,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2625AB94-AFAF-4F86-94D3-1AB2CE50B357}">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="47.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="52.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -481,224 +475,180 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="C2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
       </c>
-      <c r="C4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>22</v>
       </c>
-      <c r="B5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="B15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
         <v>14</v>
       </c>
-      <c r="B14" t="s">
-        <v>4</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="B16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
         <v>15</v>
       </c>
-      <c r="B15" t="s">
-        <v>4</v>
-      </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" t="s">
-        <v>4</v>
-      </c>
-      <c r="C16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>17</v>
-      </c>
       <c r="B17" t="s">
         <v>4</v>
       </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" t="s">
-        <v>4</v>
-      </c>
-      <c r="C18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" t="s">
-        <v>4</v>
-      </c>
-      <c r="C19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" t="s">
-        <v>3</v>
-      </c>
-      <c r="C20">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" t="s">
-        <v>4</v>
-      </c>
-      <c r="C21">
-        <v>1</v>
+      <c r="C17" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
